--- a/DSD_LAB5_TruthTablesP_V1.xlsx
+++ b/DSD_LAB5_TruthTablesP_V1.xlsx
@@ -9,10 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8145"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8145" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="7-seg" sheetId="1" r:id="rId1"/>
+    <sheet name="TDM" sheetId="2" r:id="rId2"/>
+    <sheet name="D-latch" sheetId="3" r:id="rId3"/>
+    <sheet name="static RAM Cell" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -23,12 +26,177 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="51">
+  <si>
+    <t>A3</t>
+  </si>
+  <si>
+    <t>A2</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>A0</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>Segment</t>
+  </si>
+  <si>
+    <t>reset</t>
+  </si>
+  <si>
+    <t>clock</t>
+  </si>
+  <si>
+    <t>InA</t>
+  </si>
+  <si>
+    <t>InB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cathode A </t>
+  </si>
+  <si>
+    <t>Cathode B</t>
+  </si>
+  <si>
+    <t>Anode_outs</t>
+  </si>
+  <si>
+    <t>↑</t>
+  </si>
+  <si>
+    <t>xxxx</t>
+  </si>
+  <si>
+    <t>0110</t>
+  </si>
+  <si>
+    <t>1110</t>
+  </si>
+  <si>
+    <t>1 0 1 1 1 1 1</t>
+  </si>
+  <si>
+    <t>1 0 0 1 1 1 1</t>
+  </si>
+  <si>
+    <t>0000</t>
+  </si>
+  <si>
+    <t>1 1 1 1 1 1 0</t>
+  </si>
+  <si>
+    <t>0011</t>
+  </si>
+  <si>
+    <t>1 1 1 1 0 0 1</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>1 1 1 1 0 1 1</t>
+  </si>
+  <si>
+    <t>1101</t>
+  </si>
+  <si>
+    <t>0 1 1 1 1 0 1</t>
+  </si>
+  <si>
+    <t>1010</t>
+  </si>
+  <si>
+    <t>1000</t>
+  </si>
+  <si>
+    <t>1001</t>
+  </si>
+  <si>
+    <t>0100</t>
+  </si>
+  <si>
+    <t>1 1 0 1 1 1 1</t>
+  </si>
+  <si>
+    <t>1 1 1 1 1 1 1</t>
+  </si>
+  <si>
+    <t>0 1 1 0 0 1 1</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>Q</t>
+  </si>
+  <si>
+    <t>Q-bar</t>
+  </si>
+  <si>
+    <t>last Q-bar</t>
+  </si>
+  <si>
+    <t>last Q</t>
+  </si>
+  <si>
+    <t>Data_in</t>
+  </si>
+  <si>
+    <t>Cell_select</t>
+  </si>
+  <si>
+    <t>Write_enable</t>
+  </si>
+  <si>
+    <t>Data_out</t>
+  </si>
+  <si>
+    <t>z</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -42,7 +210,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -50,12 +218,142 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -336,12 +634,1134 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:K18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:D7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="11" width="4.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="11"/>
+    </row>
+    <row r="2" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>0</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0</v>
+      </c>
+      <c r="D3" s="3">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3" s="2">
+        <v>1</v>
+      </c>
+      <c r="G3" s="2">
+        <v>1</v>
+      </c>
+      <c r="H3" s="2">
+        <v>1</v>
+      </c>
+      <c r="I3" s="2">
+        <v>1</v>
+      </c>
+      <c r="J3" s="2">
+        <v>1</v>
+      </c>
+      <c r="K3" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>0</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0</v>
+      </c>
+      <c r="D4" s="3">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0</v>
+      </c>
+      <c r="F4" s="2">
+        <v>1</v>
+      </c>
+      <c r="G4" s="2">
+        <v>1</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0</v>
+      </c>
+      <c r="I4" s="2">
+        <v>0</v>
+      </c>
+      <c r="J4" s="2">
+        <v>0</v>
+      </c>
+      <c r="K4" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>0</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0</v>
+      </c>
+      <c r="C5" s="2">
+        <v>1</v>
+      </c>
+      <c r="D5" s="3">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+      <c r="F5" s="2">
+        <v>1</v>
+      </c>
+      <c r="G5" s="2">
+        <v>0</v>
+      </c>
+      <c r="H5" s="2">
+        <v>1</v>
+      </c>
+      <c r="I5" s="2">
+        <v>1</v>
+      </c>
+      <c r="J5" s="2">
+        <v>0</v>
+      </c>
+      <c r="K5" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>0</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0</v>
+      </c>
+      <c r="C6" s="2">
+        <v>1</v>
+      </c>
+      <c r="D6" s="3">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+      <c r="F6" s="2">
+        <v>1</v>
+      </c>
+      <c r="G6" s="2">
+        <v>1</v>
+      </c>
+      <c r="H6" s="2">
+        <v>1</v>
+      </c>
+      <c r="I6" s="2">
+        <v>0</v>
+      </c>
+      <c r="J6" s="2">
+        <v>0</v>
+      </c>
+      <c r="K6" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>0</v>
+      </c>
+      <c r="B7" s="2">
+        <v>1</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0</v>
+      </c>
+      <c r="F7" s="2">
+        <v>1</v>
+      </c>
+      <c r="G7" s="2">
+        <v>1</v>
+      </c>
+      <c r="H7" s="2">
+        <v>0</v>
+      </c>
+      <c r="I7" s="2">
+        <v>0</v>
+      </c>
+      <c r="J7" s="2">
+        <v>1</v>
+      </c>
+      <c r="K7" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>0</v>
+      </c>
+      <c r="B8" s="2">
+        <v>1</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0</v>
+      </c>
+      <c r="D8" s="3">
+        <v>1</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0</v>
+      </c>
+      <c r="G8" s="2">
+        <v>1</v>
+      </c>
+      <c r="H8" s="2">
+        <v>1</v>
+      </c>
+      <c r="I8" s="2">
+        <v>0</v>
+      </c>
+      <c r="J8" s="2">
+        <v>1</v>
+      </c>
+      <c r="K8" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>0</v>
+      </c>
+      <c r="B9" s="2">
+        <v>1</v>
+      </c>
+      <c r="C9" s="2">
+        <v>1</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1</v>
+      </c>
+      <c r="F9" s="2">
+        <v>0</v>
+      </c>
+      <c r="G9" s="2">
+        <v>1</v>
+      </c>
+      <c r="H9" s="2">
+        <v>1</v>
+      </c>
+      <c r="I9" s="2">
+        <v>1</v>
+      </c>
+      <c r="J9" s="2">
+        <v>1</v>
+      </c>
+      <c r="K9" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>0</v>
+      </c>
+      <c r="B10" s="2">
+        <v>1</v>
+      </c>
+      <c r="C10" s="2">
+        <v>1</v>
+      </c>
+      <c r="D10" s="3">
+        <v>1</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1</v>
+      </c>
+      <c r="F10" s="2">
+        <v>1</v>
+      </c>
+      <c r="G10" s="2">
+        <v>1</v>
+      </c>
+      <c r="H10" s="2">
+        <v>0</v>
+      </c>
+      <c r="I10" s="2">
+        <v>0</v>
+      </c>
+      <c r="J10" s="2">
+        <v>0</v>
+      </c>
+      <c r="K10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>1</v>
+      </c>
+      <c r="B11" s="2">
+        <v>0</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0</v>
+      </c>
+      <c r="D11" s="3">
+        <v>0</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1</v>
+      </c>
+      <c r="F11" s="2">
+        <v>1</v>
+      </c>
+      <c r="G11" s="2">
+        <v>1</v>
+      </c>
+      <c r="H11" s="2">
+        <v>1</v>
+      </c>
+      <c r="I11" s="2">
+        <v>1</v>
+      </c>
+      <c r="J11" s="2">
+        <v>1</v>
+      </c>
+      <c r="K11" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>1</v>
+      </c>
+      <c r="B12" s="2">
+        <v>0</v>
+      </c>
+      <c r="C12" s="2">
+        <v>0</v>
+      </c>
+      <c r="D12" s="3">
+        <v>1</v>
+      </c>
+      <c r="E12" s="1">
+        <v>1</v>
+      </c>
+      <c r="F12" s="2">
+        <v>1</v>
+      </c>
+      <c r="G12" s="2">
+        <v>1</v>
+      </c>
+      <c r="H12" s="2">
+        <v>1</v>
+      </c>
+      <c r="I12" s="2">
+        <v>0</v>
+      </c>
+      <c r="J12" s="2">
+        <v>1</v>
+      </c>
+      <c r="K12" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>1</v>
+      </c>
+      <c r="B13" s="2">
+        <v>0</v>
+      </c>
+      <c r="C13" s="2">
+        <v>1</v>
+      </c>
+      <c r="D13" s="3">
+        <v>0</v>
+      </c>
+      <c r="E13" s="1">
+        <v>1</v>
+      </c>
+      <c r="F13" s="2">
+        <v>1</v>
+      </c>
+      <c r="G13" s="2">
+        <v>0</v>
+      </c>
+      <c r="H13" s="2">
+        <v>1</v>
+      </c>
+      <c r="I13" s="2">
+        <v>1</v>
+      </c>
+      <c r="J13" s="2">
+        <v>1</v>
+      </c>
+      <c r="K13" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>1</v>
+      </c>
+      <c r="B14" s="2">
+        <v>0</v>
+      </c>
+      <c r="C14" s="2">
+        <v>1</v>
+      </c>
+      <c r="D14" s="3">
+        <v>1</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0</v>
+      </c>
+      <c r="F14" s="2">
+        <v>0</v>
+      </c>
+      <c r="G14" s="2">
+        <v>1</v>
+      </c>
+      <c r="H14" s="2">
+        <v>1</v>
+      </c>
+      <c r="I14" s="2">
+        <v>1</v>
+      </c>
+      <c r="J14" s="2">
+        <v>1</v>
+      </c>
+      <c r="K14" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>1</v>
+      </c>
+      <c r="B15" s="2">
+        <v>1</v>
+      </c>
+      <c r="C15" s="2">
+        <v>0</v>
+      </c>
+      <c r="D15" s="3">
+        <v>0</v>
+      </c>
+      <c r="E15" s="1">
+        <v>1</v>
+      </c>
+      <c r="F15" s="2">
+        <v>0</v>
+      </c>
+      <c r="G15" s="2">
+        <v>0</v>
+      </c>
+      <c r="H15" s="2">
+        <v>1</v>
+      </c>
+      <c r="I15" s="2">
+        <v>1</v>
+      </c>
+      <c r="J15" s="2">
+        <v>1</v>
+      </c>
+      <c r="K15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>1</v>
+      </c>
+      <c r="B16" s="2">
+        <v>1</v>
+      </c>
+      <c r="C16" s="2">
+        <v>0</v>
+      </c>
+      <c r="D16" s="3">
+        <v>1</v>
+      </c>
+      <c r="E16" s="1">
+        <v>0</v>
+      </c>
+      <c r="F16" s="2">
+        <v>1</v>
+      </c>
+      <c r="G16" s="2">
+        <v>1</v>
+      </c>
+      <c r="H16" s="2">
+        <v>1</v>
+      </c>
+      <c r="I16" s="2">
+        <v>1</v>
+      </c>
+      <c r="J16" s="2">
+        <v>0</v>
+      </c>
+      <c r="K16" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>1</v>
+      </c>
+      <c r="B17" s="2">
+        <v>1</v>
+      </c>
+      <c r="C17" s="2">
+        <v>1</v>
+      </c>
+      <c r="D17" s="3">
+        <v>0</v>
+      </c>
+      <c r="E17" s="1">
+        <v>1</v>
+      </c>
+      <c r="F17" s="2">
+        <v>0</v>
+      </c>
+      <c r="G17" s="2">
+        <v>0</v>
+      </c>
+      <c r="H17" s="2">
+        <v>1</v>
+      </c>
+      <c r="I17" s="2">
+        <v>1</v>
+      </c>
+      <c r="J17" s="2">
+        <v>1</v>
+      </c>
+      <c r="K17" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="4">
+        <v>1</v>
+      </c>
+      <c r="B18" s="5">
+        <v>1</v>
+      </c>
+      <c r="C18" s="5">
+        <v>1</v>
+      </c>
+      <c r="D18" s="6">
+        <v>1</v>
+      </c>
+      <c r="E18" s="4">
+        <v>1</v>
+      </c>
+      <c r="F18" s="5">
+        <v>0</v>
+      </c>
+      <c r="G18" s="5">
+        <v>0</v>
+      </c>
+      <c r="H18" s="5">
+        <v>0</v>
+      </c>
+      <c r="I18" s="5">
+        <v>1</v>
+      </c>
+      <c r="J18" s="5">
+        <v>1</v>
+      </c>
+      <c r="K18" s="6">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="E1:K1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="13.5703125" style="8" customWidth="1"/>
+    <col min="5" max="5" width="16.42578125" style="8" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" customWidth="1"/>
+    <col min="7" max="7" width="10.42578125" customWidth="1"/>
+    <col min="8" max="8" width="16.42578125" style="8" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="10.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="12">
+        <v>0</v>
+      </c>
+      <c r="B2" s="12">
+        <v>0</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="12">
+        <v>0</v>
+      </c>
+      <c r="B3" s="12">
+        <v>1</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="12">
+        <v>1</v>
+      </c>
+      <c r="B4" s="12">
+        <v>0</v>
+      </c>
+      <c r="C4" s="12">
+        <v>0</v>
+      </c>
+      <c r="D4" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="12">
+        <v>1</v>
+      </c>
+      <c r="B5" s="12">
+        <v>1</v>
+      </c>
+      <c r="C5" s="12">
+        <v>1</v>
+      </c>
+      <c r="D5" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="13"/>
+    <col min="2" max="2" width="10.5703125" style="13" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" style="13" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="13"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="13">
+        <v>0</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="13">
+        <v>1</v>
+      </c>
+      <c r="B3" s="13">
+        <v>1</v>
+      </c>
+      <c r="C3" s="13">
+        <v>1</v>
+      </c>
+      <c r="D3" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="13">
+        <v>0</v>
+      </c>
+      <c r="B4" s="13">
+        <v>1</v>
+      </c>
+      <c r="C4" s="13">
+        <v>0</v>
+      </c>
+      <c r="D4" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="13">
+        <v>0</v>
+      </c>
+      <c r="B5" s="13">
+        <v>1</v>
+      </c>
+      <c r="C5" s="13">
+        <v>1</v>
+      </c>
+      <c r="D5" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="13">
+        <v>1</v>
+      </c>
+      <c r="B6" s="13">
+        <v>1</v>
+      </c>
+      <c r="C6" s="13">
+        <v>0</v>
+      </c>
+      <c r="D6" s="13">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/DSD_LAB5_TruthTablesP_V1.xlsx
+++ b/DSD_LAB5_TruthTablesP_V1.xlsx
@@ -339,6 +339,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -347,12 +353,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -646,21 +646,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="9" t="s">
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="11"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="13"/>
     </row>
     <row r="2" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
@@ -1586,72 +1586,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="9" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="12">
-        <v>0</v>
-      </c>
-      <c r="B2" s="12">
-        <v>0</v>
-      </c>
-      <c r="C2" s="12" t="s">
+      <c r="A2" s="9">
+        <v>0</v>
+      </c>
+      <c r="B2" s="9">
+        <v>0</v>
+      </c>
+      <c r="C2" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="9" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="12">
-        <v>0</v>
-      </c>
-      <c r="B3" s="12">
-        <v>1</v>
-      </c>
-      <c r="C3" s="12" t="s">
+      <c r="A3" s="9">
+        <v>0</v>
+      </c>
+      <c r="B3" s="9">
+        <v>1</v>
+      </c>
+      <c r="C3" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="9" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="12">
-        <v>1</v>
-      </c>
-      <c r="B4" s="12">
-        <v>0</v>
-      </c>
-      <c r="C4" s="12">
-        <v>0</v>
-      </c>
-      <c r="D4" s="12">
+      <c r="A4" s="9">
+        <v>1</v>
+      </c>
+      <c r="B4" s="9">
+        <v>0</v>
+      </c>
+      <c r="C4" s="9">
+        <v>0</v>
+      </c>
+      <c r="D4" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="12">
-        <v>1</v>
-      </c>
-      <c r="B5" s="12">
-        <v>1</v>
-      </c>
-      <c r="C5" s="12">
-        <v>1</v>
-      </c>
-      <c r="D5" s="12">
+      <c r="A5" s="9">
+        <v>1</v>
+      </c>
+      <c r="B5" s="9">
+        <v>1</v>
+      </c>
+      <c r="C5" s="9">
+        <v>1</v>
+      </c>
+      <c r="D5" s="9">
         <v>0</v>
       </c>
     </row>
@@ -1666,99 +1666,99 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="13"/>
-    <col min="2" max="2" width="10.5703125" style="13" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" style="13" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="13"/>
+    <col min="1" max="1" width="9.140625" style="10"/>
+    <col min="2" max="2" width="10.5703125" style="10" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" style="10" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="9" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="9">
+        <v>1</v>
+      </c>
+      <c r="B2" s="9">
+        <v>1</v>
+      </c>
+      <c r="C2" s="9">
+        <v>1</v>
+      </c>
+      <c r="D2" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="9">
+        <v>0</v>
+      </c>
+      <c r="B3" s="9">
+        <v>1</v>
+      </c>
+      <c r="C3" s="9">
+        <v>0</v>
+      </c>
+      <c r="D3" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="9">
+        <v>0</v>
+      </c>
+      <c r="B4" s="9">
+        <v>1</v>
+      </c>
+      <c r="C4" s="9">
+        <v>1</v>
+      </c>
+      <c r="D4" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="9">
+        <v>1</v>
+      </c>
+      <c r="B5" s="9">
+        <v>1</v>
+      </c>
+      <c r="C5" s="9">
+        <v>0</v>
+      </c>
+      <c r="D5" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="13">
-        <v>0</v>
-      </c>
-      <c r="C2" s="13" t="s">
+      <c r="B6" s="9">
+        <v>0</v>
+      </c>
+      <c r="C6" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D6" s="9" t="s">
         <v>50</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="13">
-        <v>1</v>
-      </c>
-      <c r="B3" s="13">
-        <v>1</v>
-      </c>
-      <c r="C3" s="13">
-        <v>1</v>
-      </c>
-      <c r="D3" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="13">
-        <v>0</v>
-      </c>
-      <c r="B4" s="13">
-        <v>1</v>
-      </c>
-      <c r="C4" s="13">
-        <v>0</v>
-      </c>
-      <c r="D4" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="13">
-        <v>0</v>
-      </c>
-      <c r="B5" s="13">
-        <v>1</v>
-      </c>
-      <c r="C5" s="13">
-        <v>1</v>
-      </c>
-      <c r="D5" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="13">
-        <v>1</v>
-      </c>
-      <c r="B6" s="13">
-        <v>1</v>
-      </c>
-      <c r="C6" s="13">
-        <v>0</v>
-      </c>
-      <c r="D6" s="13">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
